--- a/biology/Zoologie/Citharinidae/Citharinidae.xlsx
+++ b/biology/Zoologie/Citharinidae/Citharinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Citharinidae est une famille de poissons téléostéens. Ce sont des poissons d'eau douce originaire d'Afrique, et sont suffisamment abondantes pour être d’importants poissons comestibles[1]. Cette famille regroupe de grandes espèces de poissons, mesurant jusqu'à 84 cm (33 po) de longueur et pesant jusqu'à 18 kg (40 lb)[2]. Ce sont des filtreurs, se nourrissants de toutes sortes de petits organisme rencontré dans la colonne d’eau[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Citharinidae est une famille de poissons téléostéens. Ce sont des poissons d'eau douce originaire d'Afrique, et sont suffisamment abondantes pour être d’importants poissons comestibles. Cette famille regroupe de grandes espèces de poissons, mesurant jusqu'à 84 cm (33 po) de longueur et pesant jusqu'à 18 kg (40 lb). Ce sont des filtreurs, se nourrissants de toutes sortes de petits organisme rencontré dans la colonne d’eau.
 </t>
         </is>
       </c>
@@ -511,14 +523,50 @@
           <t>Liste des sous-familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                            (16 juin 2015)[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                            (16 juin 2015):
 genre Citharidium Boulenger, 1902
 genre Citharinops Daget, 1962
-genre Citharinus G. Cuvier, 1817
-Note
-Récemment une grande majorité des genres, aujourd'hui classé sous la famille des Distichodontidae était recensés.
+genre Citharinus G. Cuvier, 1817</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Citharinidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Citharinidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Récemment une grande majorité des genres, aujourd'hui classé sous la famille des Distichodontidae était recensés.
 sous-famille Citharininae
 genre Citharidium Boulenger, 1902
 genre Citharinops Daget, 1962
